--- a/Code/Results/Cases/Case_1_151/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_151/res_line/loading_percent.xlsx
@@ -421,37 +421,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>9.811883865705418</v>
+        <v>14.59015259353513</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>3.54548006731393</v>
+        <v>3.516321045433621</v>
       </c>
       <c r="E2">
-        <v>5.80731907464576</v>
+        <v>8.894098615792716</v>
       </c>
       <c r="F2">
-        <v>47.64333691095639</v>
+        <v>56.0352390817772</v>
       </c>
       <c r="G2">
-        <v>2.160562755007303</v>
+        <v>3.789200366177493</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>30.44268945255783</v>
+        <v>37.94718826566889</v>
       </c>
       <c r="J2">
-        <v>5.993345153980729</v>
+        <v>9.318813428559046</v>
       </c>
       <c r="K2">
-        <v>15.01284575049651</v>
+        <v>17.70856171819532</v>
       </c>
       <c r="L2">
-        <v>9.076411170533152</v>
+        <v>13.52972660110104</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -468,37 +468,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>9.377569383933588</v>
+        <v>14.58269357045974</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>3.443487206875634</v>
+        <v>3.461793199966542</v>
       </c>
       <c r="E3">
-        <v>5.697266347567131</v>
+        <v>8.871404700510782</v>
       </c>
       <c r="F3">
-        <v>46.29543008018663</v>
+        <v>55.80099073721023</v>
       </c>
       <c r="G3">
-        <v>2.171008692956348</v>
+        <v>3.79288200155788</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>29.95247774241595</v>
+        <v>37.86491759986622</v>
       </c>
       <c r="J3">
-        <v>5.985370948619182</v>
+        <v>9.316441907827357</v>
       </c>
       <c r="K3">
-        <v>14.20379598765604</v>
+        <v>17.61328516272783</v>
       </c>
       <c r="L3">
-        <v>8.815654987371055</v>
+        <v>13.52871109876697</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -515,37 +515,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>9.108628708831469</v>
+        <v>14.58211000320571</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>3.381633992284142</v>
+        <v>3.427737810761335</v>
       </c>
       <c r="E4">
-        <v>5.629747017206007</v>
+        <v>8.857205343642908</v>
       </c>
       <c r="F4">
-        <v>45.47721214664088</v>
+        <v>55.66514502009845</v>
       </c>
       <c r="G4">
-        <v>2.17757924727006</v>
+        <v>3.795260186728471</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>29.66055280369161</v>
+        <v>37.818008908831</v>
       </c>
       <c r="J4">
-        <v>5.980754791640281</v>
+        <v>9.31497098677783</v>
       </c>
       <c r="K4">
-        <v>13.69721556614787</v>
+        <v>17.55989925620561</v>
       </c>
       <c r="L4">
-        <v>8.658831736161755</v>
+        <v>13.53087485395954</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -562,37 +562,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>8.998632568733896</v>
+        <v>14.58287990261657</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>3.356614536531224</v>
+        <v>3.413723862640665</v>
       </c>
       <c r="E5">
-        <v>5.602221469111051</v>
+        <v>8.851352076186492</v>
       </c>
       <c r="F5">
-        <v>45.14634775754789</v>
+        <v>55.61182049358995</v>
       </c>
       <c r="G5">
-        <v>2.180298435329977</v>
+        <v>3.796259009390832</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>29.543843410794</v>
+        <v>37.79980458459255</v>
       </c>
       <c r="J5">
-        <v>5.978936314461146</v>
+        <v>9.314367717801884</v>
       </c>
       <c r="K5">
-        <v>13.48853859111696</v>
+        <v>17.53944939408213</v>
       </c>
       <c r="L5">
-        <v>8.595802125335949</v>
+        <v>13.53245799044744</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -609,37 +609,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>8.980349012511594</v>
+        <v>14.58306867449524</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>3.352471139684649</v>
+        <v>3.411388888851008</v>
       </c>
       <c r="E6">
-        <v>5.597649555747528</v>
+        <v>8.850376097328514</v>
       </c>
       <c r="F6">
-        <v>45.09156919827117</v>
+        <v>55.60308954273972</v>
       </c>
       <c r="G6">
-        <v>2.180752531247776</v>
+        <v>3.796426659736742</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>29.52459914707015</v>
+        <v>37.79683693661161</v>
       </c>
       <c r="J6">
-        <v>5.978637927211546</v>
+        <v>9.314267308562847</v>
       </c>
       <c r="K6">
-        <v>13.45376025735551</v>
+        <v>17.53613307038172</v>
       </c>
       <c r="L6">
-        <v>8.585390654202399</v>
+        <v>13.53276323925745</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -656,37 +656,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>9.107146642953442</v>
+        <v>14.58211630303382</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>3.38129582564408</v>
+        <v>3.427549353427816</v>
       </c>
       <c r="E7">
-        <v>5.629375872267118</v>
+        <v>8.85712667563509</v>
       </c>
       <c r="F7">
-        <v>45.47273932400802</v>
+        <v>55.66441759999599</v>
       </c>
       <c r="G7">
-        <v>2.177615747782126</v>
+        <v>3.79527353683054</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>29.65896973610695</v>
+        <v>37.81775970339945</v>
       </c>
       <c r="J7">
-        <v>5.980730023142534</v>
+        <v>9.314962866663262</v>
       </c>
       <c r="K7">
-        <v>13.6944100107333</v>
+        <v>17.55961815314266</v>
       </c>
       <c r="L7">
-        <v>8.65797807456549</v>
+        <v>13.53089336441034</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -703,37 +703,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>9.662698199920786</v>
+        <v>14.58675318981133</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>3.510147636289954</v>
+        <v>3.497644246145461</v>
       </c>
       <c r="E8">
-        <v>5.769346249451867</v>
+        <v>8.886328657572054</v>
       </c>
       <c r="F8">
-        <v>47.17674158689467</v>
+        <v>55.95282962171111</v>
       </c>
       <c r="G8">
-        <v>2.164133383022029</v>
+        <v>3.790445442822998</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>30.27176541582593</v>
+        <v>37.91807589592634</v>
       </c>
       <c r="J8">
-        <v>5.990532619112019</v>
+        <v>9.317998717181535</v>
       </c>
       <c r="K8">
-        <v>14.73604436555721</v>
+        <v>17.6746611195789</v>
       </c>
       <c r="L8">
-        <v>8.985851144970168</v>
+        <v>13.52879835640201</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -750,37 +750,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>10.72787847871839</v>
+        <v>14.62739988162841</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>3.769437789203578</v>
+        <v>3.630174675914309</v>
       </c>
       <c r="E9">
-        <v>6.045520597070041</v>
+        <v>8.941501134167314</v>
       </c>
       <c r="F9">
-        <v>50.58544695768376</v>
+        <v>56.58050446381853</v>
       </c>
       <c r="G9">
-        <v>2.138828062408958</v>
+        <v>3.781906026808002</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>31.54684582445293</v>
+        <v>38.14318415091343</v>
       </c>
       <c r="J9">
-        <v>6.012369467500076</v>
+        <v>9.323840914409852</v>
       </c>
       <c r="K9">
-        <v>16.78254803376573</v>
+        <v>17.93989151012775</v>
       </c>
       <c r="L9">
-        <v>9.652844831036649</v>
+        <v>13.54677099745335</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -797,37 +797,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>11.48909760303107</v>
+        <v>14.67624455511074</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>3.964950060093125</v>
+        <v>3.724074999245067</v>
       </c>
       <c r="E10">
-        <v>6.251528112363867</v>
+        <v>8.980779118546334</v>
       </c>
       <c r="F10">
-        <v>53.12362605790275</v>
+        <v>57.07770681790812</v>
       </c>
       <c r="G10">
-        <v>2.120758468974619</v>
+        <v>3.776191126269187</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>32.53093358206128</v>
+        <v>38.32555329639031</v>
       </c>
       <c r="J10">
-        <v>6.030625581115443</v>
+        <v>9.32807447770257</v>
       </c>
       <c r="K10">
-        <v>18.44796889755086</v>
+        <v>18.15751219204532</v>
       </c>
       <c r="L10">
-        <v>10.15543451978473</v>
+        <v>13.57337116299807</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -844,37 +844,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>11.82986381399951</v>
+        <v>14.70251716403424</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>4.055296017931129</v>
+        <v>3.765945703013923</v>
       </c>
       <c r="E11">
-        <v>6.346478899010748</v>
+        <v>8.998378625879065</v>
       </c>
       <c r="F11">
-        <v>54.28510004024105</v>
+        <v>57.31129513097276</v>
       </c>
       <c r="G11">
-        <v>2.112609049957007</v>
+        <v>3.773711157825139</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>32.98964613566074</v>
+        <v>38.41212394825919</v>
       </c>
       <c r="J11">
-        <v>6.039573261280379</v>
+        <v>9.329989660900683</v>
       </c>
       <c r="K11">
-        <v>19.17635606009361</v>
+        <v>18.26111892246633</v>
       </c>
       <c r="L11">
-        <v>10.38656340706935</v>
+        <v>13.58835973526341</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -891,37 +891,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>11.95806710010939</v>
+        <v>14.71304163904367</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>4.089744146560049</v>
+        <v>3.781672060206902</v>
       </c>
       <c r="E12">
-        <v>6.3826675830481</v>
+        <v>9.005004761926568</v>
       </c>
       <c r="F12">
-        <v>54.72593115785137</v>
+        <v>57.40077454782827</v>
       </c>
       <c r="G12">
-        <v>2.109529219625097</v>
+        <v>3.772789166161118</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>33.1650173392983</v>
+        <v>38.44541696476798</v>
       </c>
       <c r="J12">
-        <v>6.043069792226493</v>
+        <v>9.330713509178155</v>
       </c>
       <c r="K12">
-        <v>19.44816928804329</v>
+        <v>18.30098452689698</v>
       </c>
       <c r="L12">
-        <v>10.47444176873012</v>
+        <v>13.59444835231873</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -938,37 +938,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>11.93049393092412</v>
+        <v>14.71074952700301</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>4.082314003694204</v>
+        <v>3.778290970926686</v>
       </c>
       <c r="E13">
-        <v>6.374862375099388</v>
+        <v>9.003579411079588</v>
       </c>
       <c r="F13">
-        <v>54.63094447172986</v>
+        <v>57.38145865298323</v>
       </c>
       <c r="G13">
-        <v>2.110192309586741</v>
+        <v>3.772986973860198</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>33.12717242850218</v>
+        <v>38.4382241514209</v>
       </c>
       <c r="J13">
-        <v>6.042311662065019</v>
+        <v>9.330557674979186</v>
       </c>
       <c r="K13">
-        <v>19.38980455899109</v>
+        <v>18.29237115357794</v>
       </c>
       <c r="L13">
-        <v>10.45549971737624</v>
+        <v>13.59311874575496</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -985,37 +985,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>11.84042813001716</v>
+        <v>14.70337152668134</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>4.058125133350002</v>
+        <v>3.767242151270238</v>
       </c>
       <c r="E14">
-        <v>6.349451150323519</v>
+        <v>8.998924531100073</v>
       </c>
       <c r="F14">
-        <v>54.3213469523721</v>
+        <v>57.31863636180675</v>
       </c>
       <c r="G14">
-        <v>2.112355571022883</v>
+        <v>3.773634962528005</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>33.00404010874553</v>
+        <v>38.41485280274733</v>
       </c>
       <c r="J14">
-        <v>6.039858655232022</v>
+        <v>9.330049239347597</v>
       </c>
       <c r="K14">
-        <v>19.19879751312561</v>
+        <v>18.26438620538907</v>
       </c>
       <c r="L14">
-        <v>10.39378607240698</v>
+        <v>13.58885239269935</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1032,37 +1032,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>11.78515024825897</v>
+        <v>14.69892702364473</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>4.043340632125183</v>
+        <v>3.760457387120193</v>
       </c>
       <c r="E15">
-        <v>6.33391815022505</v>
+        <v>8.996068284454791</v>
       </c>
       <c r="F15">
-        <v>54.13184235294948</v>
+        <v>57.28028808691749</v>
       </c>
       <c r="G15">
-        <v>2.11368131005649</v>
+        <v>3.774034100562</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>32.92883771680724</v>
+        <v>38.4006034074453</v>
       </c>
       <c r="J15">
-        <v>6.038370720509491</v>
+        <v>9.329737631192334</v>
       </c>
       <c r="K15">
-        <v>19.08128386169347</v>
+        <v>18.24732598036527</v>
       </c>
       <c r="L15">
-        <v>10.35603102186405</v>
+        <v>13.58629280187915</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1079,37 +1079,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>11.46671241069679</v>
+        <v>14.6746085349</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>3.959076759758822</v>
+        <v>3.721320984025463</v>
       </c>
       <c r="E16">
-        <v>6.245352255089856</v>
+        <v>8.979623565241104</v>
       </c>
       <c r="F16">
-        <v>53.0478590996408</v>
+        <v>57.06258690901008</v>
       </c>
       <c r="G16">
-        <v>2.121292143384141</v>
+        <v>3.776355599185319</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>32.50118417941403</v>
+        <v>38.31996762823621</v>
       </c>
       <c r="J16">
-        <v>6.030055065868062</v>
+        <v>9.327949113452949</v>
       </c>
       <c r="K16">
-        <v>18.39979487462875</v>
+        <v>18.15083139883854</v>
       </c>
       <c r="L16">
-        <v>10.14037926659959</v>
+        <v>13.57244953164461</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1126,37 +1126,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>11.26990934319319</v>
+        <v>14.66072309172033</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>3.907765547687231</v>
+        <v>3.697090083089517</v>
       </c>
       <c r="E17">
-        <v>6.191373273720687</v>
+        <v>8.96946667337733</v>
       </c>
       <c r="F17">
-        <v>52.38461850863347</v>
+        <v>56.93090337567001</v>
       </c>
       <c r="G17">
-        <v>2.12597652772973</v>
+        <v>3.77781036482057</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>32.24171168676141</v>
+        <v>38.27141892506726</v>
       </c>
       <c r="J17">
-        <v>6.025128899107763</v>
+        <v>9.326849282761652</v>
       </c>
       <c r="K17">
-        <v>17.97436794689634</v>
+        <v>18.09279423679555</v>
       </c>
       <c r="L17">
-        <v>10.00871608551228</v>
+        <v>13.56469514751955</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1173,37 +1173,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>11.15619536636267</v>
+        <v>14.65311851000292</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>3.878382626784108</v>
+        <v>3.683074009068892</v>
       </c>
       <c r="E18">
-        <v>6.160438653356896</v>
+        <v>8.963599440379618</v>
       </c>
       <c r="F18">
-        <v>52.00377909204913</v>
+        <v>56.85586236964395</v>
       </c>
       <c r="G18">
-        <v>2.128677762948922</v>
+        <v>3.778658386902078</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>32.09350398441165</v>
+        <v>38.24383533550414</v>
       </c>
       <c r="J18">
-        <v>6.022354943006286</v>
+        <v>9.326215674583857</v>
       </c>
       <c r="K18">
-        <v>17.72691048775967</v>
+        <v>18.05984864953445</v>
       </c>
       <c r="L18">
-        <v>9.933221473375156</v>
+        <v>13.56050704005278</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1220,37 +1220,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>11.11760652340447</v>
+        <v>14.65060953822931</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>3.868455481822838</v>
+        <v>3.678315060453547</v>
       </c>
       <c r="E19">
-        <v>6.149982532380592</v>
+        <v>8.961608553199449</v>
       </c>
       <c r="F19">
-        <v>51.87494355404044</v>
+        <v>56.83057619038879</v>
       </c>
       <c r="G19">
-        <v>2.129593653544544</v>
+        <v>3.778947453024505</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>32.04349891122866</v>
+        <v>38.23455470970707</v>
       </c>
       <c r="J19">
-        <v>6.021425492769193</v>
+        <v>9.326000967031424</v>
       </c>
       <c r="K19">
-        <v>17.64264562252405</v>
+        <v>18.04876961911041</v>
       </c>
       <c r="L19">
-        <v>9.907700953137933</v>
+        <v>13.55913580747645</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1267,37 +1267,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>11.29091337775179</v>
+        <v>14.66216173955974</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>3.913214045540282</v>
+        <v>3.699677746951298</v>
       </c>
       <c r="E20">
-        <v>6.197107396856488</v>
+        <v>8.970550504676762</v>
       </c>
       <c r="F20">
-        <v>52.45515551424829</v>
+        <v>56.94484916738174</v>
       </c>
       <c r="G20">
-        <v>2.12547718003494</v>
+        <v>3.777654335922958</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>32.26922545297802</v>
+        <v>38.27655185351064</v>
       </c>
       <c r="J20">
-        <v>6.025647038232974</v>
+        <v>9.326966465551026</v>
       </c>
       <c r="K20">
-        <v>18.01994003401052</v>
+        <v>18.09892750271442</v>
       </c>
       <c r="L20">
-        <v>10.02270765764429</v>
+        <v>13.56549248020684</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1314,37 +1314,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>11.86690560441716</v>
+        <v>14.70552306332663</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>4.065223275550955</v>
+        <v>3.770491022377044</v>
       </c>
       <c r="E21">
-        <v>6.356908240882742</v>
+        <v>9.000292823548744</v>
       </c>
       <c r="F21">
-        <v>54.41225543402529</v>
+        <v>57.33706131794262</v>
       </c>
       <c r="G21">
-        <v>2.111720034954844</v>
+        <v>3.773444168782484</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>33.04016110081456</v>
+        <v>38.42170374802243</v>
       </c>
       <c r="J21">
-        <v>6.04057608817623</v>
+        <v>9.330198615769064</v>
       </c>
       <c r="K21">
-        <v>19.25500813992751</v>
+        <v>18.27258916378899</v>
       </c>
       <c r="L21">
-        <v>10.4119031953591</v>
+        <v>13.59009434349709</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1361,37 +1361,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>12.23846438671493</v>
+        <v>14.73721343530178</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>4.165967663997741</v>
+        <v>3.816015385568366</v>
       </c>
       <c r="E22">
-        <v>6.462736834407504</v>
+        <v>9.019507302247201</v>
       </c>
       <c r="F22">
-        <v>55.69725762207399</v>
+        <v>57.59934661479247</v>
       </c>
       <c r="G22">
-        <v>2.102762763952344</v>
+        <v>3.770792313351525</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>33.55377816905457</v>
+        <v>38.51954063775188</v>
       </c>
       <c r="J22">
-        <v>6.050973008435109</v>
+        <v>9.33230297947962</v>
       </c>
       <c r="K22">
-        <v>20.03892195355052</v>
+        <v>18.38975560782695</v>
       </c>
       <c r="L22">
-        <v>10.66834247496651</v>
+        <v>13.60857759220013</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1408,37 +1408,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>12.04061204097684</v>
+        <v>14.71999561229963</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>4.112057339024426</v>
+        <v>3.791789809214015</v>
       </c>
       <c r="E23">
-        <v>6.406106457853259</v>
+        <v>9.009272604920751</v>
       </c>
       <c r="F23">
-        <v>55.01086058664492</v>
+        <v>57.45882932127929</v>
       </c>
       <c r="G23">
-        <v>2.107541769089569</v>
+        <v>3.772198567234009</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>33.27872632569803</v>
+        <v>38.46705430375704</v>
       </c>
       <c r="J23">
-        <v>6.04535959844937</v>
+        <v>9.331180527267358</v>
       </c>
       <c r="K23">
-        <v>19.62259283448347</v>
+        <v>18.32689653069998</v>
       </c>
       <c r="L23">
-        <v>10.53128337293139</v>
+        <v>13.5984936509189</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1455,37 +1455,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>11.28141922324048</v>
+        <v>14.66151014783528</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>3.910750418999822</v>
+        <v>3.698508129592148</v>
       </c>
       <c r="E24">
-        <v>6.194514696659295</v>
+        <v>8.970060591494789</v>
       </c>
       <c r="F24">
-        <v>52.4232642819354</v>
+        <v>56.93854219847514</v>
       </c>
       <c r="G24">
-        <v>2.125702909541554</v>
+        <v>3.777724840265867</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>32.25678347452737</v>
+        <v>38.27423023508793</v>
       </c>
       <c r="J24">
-        <v>6.025412607532845</v>
+        <v>9.326913491285389</v>
       </c>
       <c r="K24">
-        <v>17.99934585895724</v>
+        <v>18.09615334026244</v>
       </c>
       <c r="L24">
-        <v>10.01638144344265</v>
+        <v>13.56513116491587</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1502,37 +1502,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>10.44308829984289</v>
+        <v>14.61304910650558</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>3.698499888123694</v>
+        <v>3.594898206426643</v>
       </c>
       <c r="E25">
-        <v>5.970431236650635</v>
+        <v>8.926797596957874</v>
       </c>
       <c r="F25">
-        <v>49.65700181390487</v>
+        <v>56.40423128169497</v>
       </c>
       <c r="G25">
-        <v>2.145568897933045</v>
+        <v>3.784117493082074</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>31.19381178505248</v>
+        <v>38.07927817633914</v>
       </c>
       <c r="J25">
-        <v>6.006122902549578</v>
+        <v>9.322271409469632</v>
       </c>
       <c r="K25">
-        <v>16.17385056575863</v>
+        <v>17.86403457753612</v>
       </c>
       <c r="L25">
-        <v>9.470082090149818</v>
+        <v>13.53955032163821</v>
       </c>
       <c r="M25">
         <v>0</v>

--- a/Code/Results/Cases/Case_1_151/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_151/res_line/loading_percent.xlsx
@@ -421,37 +421,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>14.59015259353513</v>
+        <v>9.811883865705434</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>3.516321045433621</v>
+        <v>3.545480067313937</v>
       </c>
       <c r="E2">
-        <v>8.894098615792716</v>
+        <v>5.807319074645827</v>
       </c>
       <c r="F2">
-        <v>56.0352390817772</v>
+        <v>47.6433369109564</v>
       </c>
       <c r="G2">
-        <v>3.789200366177493</v>
+        <v>2.160562755007569</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>37.94718826566889</v>
+        <v>30.44268945255778</v>
       </c>
       <c r="J2">
-        <v>9.318813428559046</v>
+        <v>5.993345153980729</v>
       </c>
       <c r="K2">
-        <v>17.70856171819532</v>
+        <v>15.01284575049651</v>
       </c>
       <c r="L2">
-        <v>13.52972660110104</v>
+        <v>9.076411170533204</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -468,37 +468,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>14.58269357045974</v>
+        <v>9.377569383933599</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>3.461793199966542</v>
+        <v>3.443487206875719</v>
       </c>
       <c r="E3">
-        <v>8.871404700510782</v>
+        <v>5.69726634756693</v>
       </c>
       <c r="F3">
-        <v>55.80099073721023</v>
+        <v>46.29543008018667</v>
       </c>
       <c r="G3">
-        <v>3.79288200155788</v>
+        <v>2.17100869295635</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>37.86491759986622</v>
+        <v>29.95247774241603</v>
       </c>
       <c r="J3">
-        <v>9.316441907827357</v>
+        <v>5.985370948619183</v>
       </c>
       <c r="K3">
-        <v>17.61328516272783</v>
+        <v>14.20379598765606</v>
       </c>
       <c r="L3">
-        <v>13.52871109876697</v>
+        <v>8.815654987371007</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -515,37 +515,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>14.58211000320571</v>
+        <v>9.108628708831372</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>3.427737810761335</v>
+        <v>3.381633992284268</v>
       </c>
       <c r="E4">
-        <v>8.857205343642908</v>
+        <v>5.629747017205805</v>
       </c>
       <c r="F4">
-        <v>55.66514502009845</v>
+        <v>45.4772121466406</v>
       </c>
       <c r="G4">
-        <v>3.795260186728471</v>
+        <v>2.177579247269799</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>37.818008908831</v>
+        <v>29.6605528036914</v>
       </c>
       <c r="J4">
-        <v>9.31497098677783</v>
+        <v>5.980754791640249</v>
       </c>
       <c r="K4">
-        <v>17.55989925620561</v>
+        <v>13.69721556614784</v>
       </c>
       <c r="L4">
-        <v>13.53087485395954</v>
+        <v>8.658831736161718</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -562,37 +562,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>14.58287990261657</v>
+        <v>8.998632568733907</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>3.413723862640665</v>
+        <v>3.356614536531238</v>
       </c>
       <c r="E5">
-        <v>8.851352076186492</v>
+        <v>5.602221469111181</v>
       </c>
       <c r="F5">
-        <v>55.61182049358995</v>
+        <v>45.14634775754782</v>
       </c>
       <c r="G5">
-        <v>3.796259009390832</v>
+        <v>2.180298435329975</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>37.79980458459255</v>
+        <v>29.54384341079396</v>
       </c>
       <c r="J5">
-        <v>9.314367717801884</v>
+        <v>5.978936314461279</v>
       </c>
       <c r="K5">
-        <v>17.53944939408213</v>
+        <v>13.48853859111695</v>
       </c>
       <c r="L5">
-        <v>13.53245799044744</v>
+        <v>8.595802125335959</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -609,37 +609,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>14.58306867449524</v>
+        <v>8.98034901251166</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>3.411388888851008</v>
+        <v>3.352471139684702</v>
       </c>
       <c r="E6">
-        <v>8.850376097328514</v>
+        <v>5.597649555747527</v>
       </c>
       <c r="F6">
-        <v>55.60308954273972</v>
+        <v>45.09156919827129</v>
       </c>
       <c r="G6">
-        <v>3.796426659736742</v>
+        <v>2.180752531247511</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>37.79683693661161</v>
+        <v>29.5245991470703</v>
       </c>
       <c r="J6">
-        <v>9.314267308562847</v>
+        <v>5.978637927211578</v>
       </c>
       <c r="K6">
-        <v>17.53613307038172</v>
+        <v>13.45376025735553</v>
       </c>
       <c r="L6">
-        <v>13.53276323925745</v>
+        <v>8.585390654202394</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -656,37 +656,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>14.58211630303382</v>
+        <v>9.10714664295336</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>3.427549353427816</v>
+        <v>3.381295825644114</v>
       </c>
       <c r="E7">
-        <v>8.85712667563509</v>
+        <v>5.629375872267051</v>
       </c>
       <c r="F7">
-        <v>55.66441759999599</v>
+        <v>45.4727393240079</v>
       </c>
       <c r="G7">
-        <v>3.79527353683054</v>
+        <v>2.177615747782126</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>37.81775970339945</v>
+        <v>29.65896973610682</v>
       </c>
       <c r="J7">
-        <v>9.314962866663262</v>
+        <v>5.980730023142468</v>
       </c>
       <c r="K7">
-        <v>17.55961815314266</v>
+        <v>13.69441001073329</v>
       </c>
       <c r="L7">
-        <v>13.53089336441034</v>
+        <v>8.657978074565406</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -703,37 +703,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>14.58675318981133</v>
+        <v>9.662698199920843</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>3.497644246145461</v>
+        <v>3.510147636290003</v>
       </c>
       <c r="E8">
-        <v>8.886328657572054</v>
+        <v>5.769346249451866</v>
       </c>
       <c r="F8">
-        <v>55.95282962171111</v>
+        <v>47.17674158689468</v>
       </c>
       <c r="G8">
-        <v>3.790445442822998</v>
+        <v>2.16413338302216</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>37.91807589592634</v>
+        <v>30.2717654158261</v>
       </c>
       <c r="J8">
-        <v>9.317998717181535</v>
+        <v>5.990532619112019</v>
       </c>
       <c r="K8">
-        <v>17.6746611195789</v>
+        <v>14.73604436555716</v>
       </c>
       <c r="L8">
-        <v>13.52879835640201</v>
+        <v>8.985851144970077</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -750,37 +750,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>14.62739988162841</v>
+        <v>10.7278784787184</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>3.630174675914309</v>
+        <v>3.769437789203516</v>
       </c>
       <c r="E9">
-        <v>8.941501134167314</v>
+        <v>6.045520597070102</v>
       </c>
       <c r="F9">
-        <v>56.58050446381853</v>
+        <v>50.5854469576837</v>
       </c>
       <c r="G9">
-        <v>3.781906026808002</v>
+        <v>2.138828062408832</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>38.14318415091343</v>
+        <v>31.54684582445287</v>
       </c>
       <c r="J9">
-        <v>9.323840914409852</v>
+        <v>6.012369467500045</v>
       </c>
       <c r="K9">
-        <v>17.93989151012775</v>
+        <v>16.78254803376578</v>
       </c>
       <c r="L9">
-        <v>13.54677099745335</v>
+        <v>9.652844831036601</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -797,37 +797,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>14.67624455511074</v>
+        <v>11.4890976030311</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>3.724074999245067</v>
+        <v>3.964950060093039</v>
       </c>
       <c r="E10">
-        <v>8.980779118546334</v>
+        <v>6.251528112363926</v>
       </c>
       <c r="F10">
-        <v>57.07770681790812</v>
+        <v>53.12362605790285</v>
       </c>
       <c r="G10">
-        <v>3.776191126269187</v>
+        <v>2.120758468974488</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>38.32555329639031</v>
+        <v>32.53093358206144</v>
       </c>
       <c r="J10">
-        <v>9.32807447770257</v>
+        <v>6.030625581115377</v>
       </c>
       <c r="K10">
-        <v>18.15751219204532</v>
+        <v>18.44796889755088</v>
       </c>
       <c r="L10">
-        <v>13.57337116299807</v>
+        <v>10.15543451978472</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -844,37 +844,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>14.70251716403424</v>
+        <v>11.82986381399954</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>3.765945703013923</v>
+        <v>4.055296017931123</v>
       </c>
       <c r="E11">
-        <v>8.998378625879065</v>
+        <v>6.346478899010688</v>
       </c>
       <c r="F11">
-        <v>57.31129513097276</v>
+        <v>54.28510004024115</v>
       </c>
       <c r="G11">
-        <v>3.773711157825139</v>
+        <v>2.112609049956737</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>38.41212394825919</v>
+        <v>32.98964613566074</v>
       </c>
       <c r="J11">
-        <v>9.329989660900683</v>
+        <v>6.039573261280283</v>
       </c>
       <c r="K11">
-        <v>18.26111892246633</v>
+        <v>19.17635606009361</v>
       </c>
       <c r="L11">
-        <v>13.58835973526341</v>
+        <v>10.38656340706931</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -891,37 +891,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>14.71304163904367</v>
+        <v>11.95806710010943</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>3.781672060206902</v>
+        <v>4.089744146559996</v>
       </c>
       <c r="E12">
-        <v>9.005004761926568</v>
+        <v>6.3826675830481</v>
       </c>
       <c r="F12">
-        <v>57.40077454782827</v>
+        <v>54.72593115785146</v>
       </c>
       <c r="G12">
-        <v>3.772789166161118</v>
+        <v>2.109529219625092</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>38.44541696476798</v>
+        <v>33.16501733929839</v>
       </c>
       <c r="J12">
-        <v>9.330713509178155</v>
+        <v>6.043069792226461</v>
       </c>
       <c r="K12">
-        <v>18.30098452689698</v>
+        <v>19.4481692880433</v>
       </c>
       <c r="L12">
-        <v>13.59444835231873</v>
+        <v>10.47444176873011</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -938,37 +938,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>14.71074952700301</v>
+        <v>11.93049393092412</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>3.778290970926686</v>
+        <v>4.082314003694168</v>
       </c>
       <c r="E13">
-        <v>9.003579411079588</v>
+        <v>6.374862375099452</v>
       </c>
       <c r="F13">
-        <v>57.38145865298323</v>
+        <v>54.63094447173</v>
       </c>
       <c r="G13">
-        <v>3.772986973860198</v>
+        <v>2.110192309586741</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>38.4382241514209</v>
+        <v>33.12717242850226</v>
       </c>
       <c r="J13">
-        <v>9.330557674979186</v>
+        <v>6.042311662064953</v>
       </c>
       <c r="K13">
-        <v>18.29237115357794</v>
+        <v>19.38980455899103</v>
       </c>
       <c r="L13">
-        <v>13.59311874575496</v>
+        <v>10.45549971737628</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -985,37 +985,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>14.70337152668134</v>
+        <v>11.84042813001716</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>3.767242151270238</v>
+        <v>4.058125133350075</v>
       </c>
       <c r="E14">
-        <v>8.998924531100073</v>
+        <v>6.349451150323522</v>
       </c>
       <c r="F14">
-        <v>57.31863636180675</v>
+        <v>54.321346952372</v>
       </c>
       <c r="G14">
-        <v>3.773634962528005</v>
+        <v>2.112355571022877</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>38.41485280274733</v>
+        <v>33.00404010874556</v>
       </c>
       <c r="J14">
-        <v>9.330049239347597</v>
+        <v>6.039858655232089</v>
       </c>
       <c r="K14">
-        <v>18.26438620538907</v>
+        <v>19.19879751312561</v>
       </c>
       <c r="L14">
-        <v>13.58885239269935</v>
+        <v>10.39378607240696</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1032,37 +1032,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>14.69892702364473</v>
+        <v>11.78515024825895</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>3.760457387120193</v>
+        <v>4.043340632125203</v>
       </c>
       <c r="E15">
-        <v>8.996068284454791</v>
+        <v>6.333918150225049</v>
       </c>
       <c r="F15">
-        <v>57.28028808691749</v>
+        <v>54.13184235294939</v>
       </c>
       <c r="G15">
-        <v>3.774034100562</v>
+        <v>2.113681310056358</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>38.4006034074453</v>
+        <v>32.92883771680722</v>
       </c>
       <c r="J15">
-        <v>9.329737631192334</v>
+        <v>6.038370720509493</v>
       </c>
       <c r="K15">
-        <v>18.24732598036527</v>
+        <v>19.08128386169354</v>
       </c>
       <c r="L15">
-        <v>13.58629280187915</v>
+        <v>10.35603102186401</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1079,37 +1079,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>14.6746085349</v>
+        <v>11.46671241069674</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>3.721320984025463</v>
+        <v>3.959076759758966</v>
       </c>
       <c r="E16">
-        <v>8.979623565241104</v>
+        <v>6.245352255089532</v>
       </c>
       <c r="F16">
-        <v>57.06258690901008</v>
+        <v>53.04785909964082</v>
       </c>
       <c r="G16">
-        <v>3.776355599185319</v>
+        <v>2.121292143384274</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>38.31996762823621</v>
+        <v>32.50118417941407</v>
       </c>
       <c r="J16">
-        <v>9.327949113452949</v>
+        <v>6.030055065868097</v>
       </c>
       <c r="K16">
-        <v>18.15083139883854</v>
+        <v>18.39979487462879</v>
       </c>
       <c r="L16">
-        <v>13.57244953164461</v>
+        <v>10.14037926659955</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1126,37 +1126,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>14.66072309172033</v>
+        <v>11.2699093431932</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>3.697090083089517</v>
+        <v>3.907765547687316</v>
       </c>
       <c r="E17">
-        <v>8.96946667337733</v>
+        <v>6.191373273720691</v>
       </c>
       <c r="F17">
-        <v>56.93090337567001</v>
+        <v>52.38461850863339</v>
       </c>
       <c r="G17">
-        <v>3.77781036482057</v>
+        <v>2.125976527729852</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>38.27141892506726</v>
+        <v>32.24171168676134</v>
       </c>
       <c r="J17">
-        <v>9.326849282761652</v>
+        <v>6.025128899107862</v>
       </c>
       <c r="K17">
-        <v>18.09279423679555</v>
+        <v>17.97436794689626</v>
       </c>
       <c r="L17">
-        <v>13.56469514751955</v>
+        <v>10.00871608551231</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1173,37 +1173,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>14.65311851000292</v>
+        <v>11.15619536636265</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>3.683074009068892</v>
+        <v>3.878382626784109</v>
       </c>
       <c r="E18">
-        <v>8.963599440379618</v>
+        <v>6.160438653356821</v>
       </c>
       <c r="F18">
-        <v>56.85586236964395</v>
+        <v>52.00377909204903</v>
       </c>
       <c r="G18">
-        <v>3.778658386902078</v>
+        <v>2.128677762948793</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>38.24383533550414</v>
+        <v>32.0935039844115</v>
       </c>
       <c r="J18">
-        <v>9.326215674583857</v>
+        <v>6.022354943006255</v>
       </c>
       <c r="K18">
-        <v>18.05984864953445</v>
+        <v>17.72691048775967</v>
       </c>
       <c r="L18">
-        <v>13.56050704005278</v>
+        <v>9.933221473375161</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1220,37 +1220,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>14.65060953822931</v>
+        <v>11.11760652340444</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>3.678315060453547</v>
+        <v>3.868455481822909</v>
       </c>
       <c r="E19">
-        <v>8.961608553199449</v>
+        <v>6.149982532380529</v>
       </c>
       <c r="F19">
-        <v>56.83057619038879</v>
+        <v>51.87494355404058</v>
       </c>
       <c r="G19">
-        <v>3.778947453024505</v>
+        <v>2.129593653544672</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>38.23455470970707</v>
+        <v>32.04349891122877</v>
       </c>
       <c r="J19">
-        <v>9.326000967031424</v>
+        <v>6.021425492769159</v>
       </c>
       <c r="K19">
-        <v>18.04876961911041</v>
+        <v>17.64264562252406</v>
       </c>
       <c r="L19">
-        <v>13.55913580747645</v>
+        <v>9.907700953137928</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1267,37 +1267,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>14.66216173955974</v>
+        <v>11.29091337775176</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>3.699677746951298</v>
+        <v>3.913214045540418</v>
       </c>
       <c r="E20">
-        <v>8.970550504676762</v>
+        <v>6.197107396856159</v>
       </c>
       <c r="F20">
-        <v>56.94484916738174</v>
+        <v>52.45515551424825</v>
       </c>
       <c r="G20">
-        <v>3.777654335922958</v>
+        <v>2.125477180034813</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>38.27655185351064</v>
+        <v>32.26922545297795</v>
       </c>
       <c r="J20">
-        <v>9.326966465551026</v>
+        <v>6.025647038232843</v>
       </c>
       <c r="K20">
-        <v>18.09892750271442</v>
+        <v>18.0199400340105</v>
       </c>
       <c r="L20">
-        <v>13.56549248020684</v>
+        <v>10.02270765764425</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1314,37 +1314,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>14.70552306332663</v>
+        <v>11.86690560441718</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>3.770491022377044</v>
+        <v>4.065223275550923</v>
       </c>
       <c r="E21">
-        <v>9.000292823548744</v>
+        <v>6.356908240882872</v>
       </c>
       <c r="F21">
-        <v>57.33706131794262</v>
+        <v>54.41225543402533</v>
       </c>
       <c r="G21">
-        <v>3.773444168782484</v>
+        <v>2.111720034954847</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>38.42170374802243</v>
+        <v>33.04016110081462</v>
       </c>
       <c r="J21">
-        <v>9.330198615769064</v>
+        <v>6.040576088176397</v>
       </c>
       <c r="K21">
-        <v>18.27258916378899</v>
+        <v>19.25500813992749</v>
       </c>
       <c r="L21">
-        <v>13.59009434349709</v>
+        <v>10.41190319535913</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1361,37 +1361,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>14.73721343530178</v>
+        <v>12.23846438671493</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>3.816015385568366</v>
+        <v>4.165967663997709</v>
       </c>
       <c r="E22">
-        <v>9.019507302247201</v>
+        <v>6.462736834407637</v>
       </c>
       <c r="F22">
-        <v>57.59934661479247</v>
+        <v>55.69725762207423</v>
       </c>
       <c r="G22">
-        <v>3.770792313351525</v>
+        <v>2.102762763952074</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>38.51954063775188</v>
+        <v>33.55377816905474</v>
       </c>
       <c r="J22">
-        <v>9.33230297947962</v>
+        <v>6.050973008435141</v>
       </c>
       <c r="K22">
-        <v>18.38975560782695</v>
+        <v>20.03892195355054</v>
       </c>
       <c r="L22">
-        <v>13.60857759220013</v>
+        <v>10.66834247496654</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1408,37 +1408,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>14.71999561229963</v>
+        <v>12.04061204097685</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>3.791789809214015</v>
+        <v>4.112057339024494</v>
       </c>
       <c r="E23">
-        <v>9.009272604920751</v>
+        <v>6.40610645785326</v>
       </c>
       <c r="F23">
-        <v>57.45882932127929</v>
+        <v>55.01086058664486</v>
       </c>
       <c r="G23">
-        <v>3.772198567234009</v>
+        <v>2.107541769089705</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>38.46705430375704</v>
+        <v>33.27872632569802</v>
       </c>
       <c r="J23">
-        <v>9.331180527267358</v>
+        <v>6.045359598449472</v>
       </c>
       <c r="K23">
-        <v>18.32689653069998</v>
+        <v>19.62259283448353</v>
       </c>
       <c r="L23">
-        <v>13.5984936509189</v>
+        <v>10.53128337293133</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1455,37 +1455,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>14.66151014783528</v>
+        <v>11.28141922324047</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>3.698508129592148</v>
+        <v>3.910750418999736</v>
       </c>
       <c r="E24">
-        <v>8.970060591494789</v>
+        <v>6.194514696659223</v>
       </c>
       <c r="F24">
-        <v>56.93854219847514</v>
+        <v>52.42326428193547</v>
       </c>
       <c r="G24">
-        <v>3.777724840265867</v>
+        <v>2.125702909541556</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>38.27423023508793</v>
+        <v>32.2567834745274</v>
       </c>
       <c r="J24">
-        <v>9.326913491285389</v>
+        <v>6.025412607532712</v>
       </c>
       <c r="K24">
-        <v>18.09615334026244</v>
+        <v>17.99934585895726</v>
       </c>
       <c r="L24">
-        <v>13.56513116491587</v>
+        <v>10.01638144344263</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1502,37 +1502,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>14.61304910650558</v>
+        <v>10.44308829984288</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>3.594898206426643</v>
+        <v>3.698499888123678</v>
       </c>
       <c r="E25">
-        <v>8.926797596957874</v>
+        <v>5.970431236650504</v>
       </c>
       <c r="F25">
-        <v>56.40423128169497</v>
+        <v>49.65700181390491</v>
       </c>
       <c r="G25">
-        <v>3.784117493082074</v>
+        <v>2.145568897932656</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>38.07927817633914</v>
+        <v>31.19381178505246</v>
       </c>
       <c r="J25">
-        <v>9.322271409469632</v>
+        <v>6.006122902549443</v>
       </c>
       <c r="K25">
-        <v>17.86403457753612</v>
+        <v>16.17385056575863</v>
       </c>
       <c r="L25">
-        <v>13.53955032163821</v>
+        <v>9.470082090149759</v>
       </c>
       <c r="M25">
         <v>0</v>
